--- a/images/team.xlsx
+++ b/images/team.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfp165/Documents/DIKU TEACHING/25_kicker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfp165/Documents/DIKU TEACHING/25kick/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81724EC-83F3-8B4E-8DA4-B8E9BC32DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1C4C3-BF2D-B14D-B046-2C79A4251A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="800" windowWidth="27240" windowHeight="16440" xr2:uid="{61572B08-29F7-B24C-BA7F-08E1D9C13DB8}"/>
   </bookViews>
@@ -500,10 +500,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
